--- a/123.xlsx
+++ b/123.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12180" activeTab="8"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="42" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">雨水!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">雨污合流!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -8489,12 +8489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\/m"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\/m"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29">
@@ -8523,13 +8523,11 @@
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8554,7 +8552,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8569,23 +8603,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8605,11 +8633,25 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8621,30 +8663,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8658,40 +8687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8706,13 +8704,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8736,7 +8764,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8754,127 +8848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8887,6 +8861,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8924,15 +8922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8944,24 +8933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8984,8 +8955,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8997,6 +8986,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9015,21 +9028,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9038,10 +9036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9050,133 +9048,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9196,13 +9194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9217,13 +9215,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9235,10 +9233,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9256,7 +9254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9280,34 +9278,34 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9897,10 +9895,10 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10327,7 +10325,13 @@
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="10.5" spans="8:20">
+    <row r="21" s="3" customFormat="1" ht="10.5" spans="1:20">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="P21" s="32"/>
@@ -10336,7 +10340,10 @@
       <c r="S21" s="32"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="10.5" spans="8:20">
+    <row r="22" s="3" customFormat="1" ht="10.5" spans="1:20">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="P22" s="32"/>
@@ -80426,7 +80433,7 @@
   <sheetPr/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
